--- a/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
+++ b/InputData/trans/MPoEFUbVT/Max Perc of Each Fuel Usable by Veh Tech.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\MPoEFUbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mengpin.ge\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\MPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_0008C406B894AFF595B1777C75423CF58BCEAF67" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="23955" windowHeight="12090"/>
+    <workbookView xWindow="12375" yWindow="1965" windowWidth="15645" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -103,7 +104,15 @@
     <definedName name="max_biodsl">'Max Biofuel Blends'!$A$3</definedName>
     <definedName name="max_biogas">'Max Biofuel Blends'!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -341,7 +350,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -484,15 +493,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Parent row" xfId="3"/>
-    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -583,6 +592,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -618,6 +644,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -793,10 +836,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1216,8 +1261,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1"/>
-    <hyperlink ref="B26" r:id="rId2"/>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -1225,7 +1270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2454,7 +2499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2469,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -3698,7 +3743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -4927,7 +4972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -6191,7 +6236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -7455,7 +7500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -8719,7 +8764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -9948,7 +9993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11177,7 +11222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -11192,7 +11237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11507,7 +11552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12736,7 +12781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13965,7 +14010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15229,7 +15274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -16493,7 +16538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -17757,7 +17802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -18986,7 +19031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -20215,7 +20260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -20230,7 +20275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -21459,7 +21504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -22688,7 +22733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -22703,7 +22748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -23967,7 +24012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -25231,7 +25276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -26495,7 +26540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -27724,7 +27769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -28953,7 +28998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -28968,7 +29013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -30164,7 +30209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -31360,7 +31405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -32590,7 +32635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -33820,7 +33865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -35049,7 +35094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -36245,7 +36290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -36260,7 +36305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -37456,7 +37501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -38652,7 +38697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -39882,7 +39927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -41112,7 +41157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -42308,7 +42353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -42323,7 +42368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -43519,7 +43564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -44715,7 +44760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -45944,7 +45989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -47174,7 +47219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -48404,7 +48449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -49600,7 +49645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -49615,7 +49660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -50811,7 +50856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -52007,7 +52052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -53237,7 +53282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -54467,7 +54512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -55663,7 +55708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -55678,7 +55723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -56942,7 +56987,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -58138,7 +58183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -59334,7 +59379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -60564,7 +60609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -61794,7 +61839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -62990,7 +63035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -63005,7 +63050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -64201,7 +64246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -65397,7 +65442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -66627,7 +66672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -67857,7 +67902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -69121,7 +69166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -70317,7 +70362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -70332,7 +70377,7 @@
 </file>
 
 <file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -71561,7 +71606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -72790,7 +72835,7 @@
 </file>
 
 <file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -74054,7 +74099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -75320,7 +75365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -76584,7 +76629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -77813,7 +77858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -79042,7 +79087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -79057,7 +79102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -80324,7 +80369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -81553,7 +81598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -82782,7 +82827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -84046,7 +84091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -85310,7 +85355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -86574,7 +86619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -87803,7 +87848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-5500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -89032,7 +89077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -90261,6 +90306,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -90494,32 +90557,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{139D76B8-FEB8-43C1-A21D-A4DF0617D084}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A15D8C45-47E6-4A2E-A8E1-87E4F9DED72E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A15D8C45-47E6-4A2E-A8E1-87E4F9DED72E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86FD37D0-0FC9-4AC2-8BB6-0B21B9E0540F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86FD37D0-0FC9-4AC2-8BB6-0B21B9E0540F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{139D76B8-FEB8-43C1-A21D-A4DF0617D084}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>